--- a/input4.xlsx
+++ b/input4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,12 @@
           <t>par</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>parInfo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -462,7 +467,12 @@
           <t>size_kW</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -477,11 +487,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>size_kW_min</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>39</v>
+          <t>size_kW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -495,11 +510,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>size_kW_max</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>64</v>
+          <t>size_kW</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -516,9 +536,12 @@
           <t>capex_Eur_kW</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>45</v>
-      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -531,12 +554,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>capex_Eur_kW_min</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
+          <t>capex_Eur_kW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -549,12 +575,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>capex_Eur_kW_max</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>22</v>
-      </c>
+          <t>capex_Eur_kW</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -570,9 +599,12 @@
           <t>opex_Eur_kWh</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>39</v>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -585,12 +617,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>opex_Eur_kWh_min</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
+          <t>opex_Eur_kWh</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -603,12 +638,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>opex_Eur_kWh_max</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>57</v>
-      </c>
+          <t>opex_Eur_kWh</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -624,9 +662,12 @@
           <t>eta_perc</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>96</v>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -639,12 +680,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eta_perc_min</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>28</v>
-      </c>
+          <t>eta_perc</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -657,12 +701,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eta_perc_max</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
+          <t>eta_perc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -678,9 +725,12 @@
           <t>size_kW</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>58</v>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -693,12 +743,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>size_kW_min</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>35</v>
-      </c>
+          <t>size_kW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -711,12 +764,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>size_kW_max</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>94</v>
-      </c>
+          <t>size_kW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -732,9 +788,12 @@
           <t>capex_Eur_kW</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>51</v>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -747,12 +806,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>capex_Eur_kW_min</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>92</v>
-      </c>
+          <t>capex_Eur_kW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -765,12 +827,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>capex_Eur_kW_max</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>16</v>
-      </c>
+          <t>capex_Eur_kW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -786,9 +851,12 @@
           <t>opex_Eur_kWh</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>83</v>
-      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -801,12 +869,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>opex_Eur_kWh_min</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>86</v>
-      </c>
+          <t>opex_Eur_kWh</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -819,12 +890,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>opex_Eur_kWh_max</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>37</v>
-      </c>
+          <t>opex_Eur_kWh</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -840,9 +914,12 @@
           <t>eta_perc</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>90</v>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -855,12 +932,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>eta_perc_min</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>39</v>
-      </c>
+          <t>eta_perc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -873,12 +953,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>eta_perc_max</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>30</v>
-      </c>
+          <t>eta_perc</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -894,9 +977,12 @@
           <t>stacklifetime_hr</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>4</v>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -909,12 +995,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>stacklifetime_hr_min</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>64</v>
-      </c>
+          <t>stacklifetime_hr</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -927,12 +1016,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>stacklifetime_hr_max</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>7</v>
-      </c>
+          <t>stacklifetime_hr</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -948,9 +1040,12 @@
           <t>stackexchangecost_percCapex</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>26</v>
-      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -963,12 +1058,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>stackexchangecost_percCapex_min</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>21</v>
-      </c>
+          <t>stackexchangecost_percCapex</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -981,12 +1079,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>stackexchangecost_percCapex_max</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>7</v>
-      </c>
+          <t>stackexchangecost_percCapex</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1002,9 +1103,12 @@
           <t>size_kW</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>50</v>
-      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1017,12 +1121,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>size_kW_min</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>73</v>
-      </c>
+          <t>size_kW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1035,12 +1142,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>size_kW_max</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>22</v>
-      </c>
+          <t>size_kW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1056,9 +1166,12 @@
           <t>capex_Eur_kW</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>78</v>
-      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1071,12 +1184,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>capex_Eur_kW_min</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>51</v>
-      </c>
+          <t>capex_Eur_kW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1089,12 +1205,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>capex_Eur_kW_max</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>21</v>
-      </c>
+          <t>capex_Eur_kW</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1110,9 +1229,12 @@
           <t>opex_Eur_kWh</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>15</v>
-      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1125,12 +1247,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>opex_Eur_kWh_min</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>38</v>
-      </c>
+          <t>opex_Eur_kWh</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1143,12 +1268,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>opex_Eur_kWh_max</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>28</v>
-      </c>
+          <t>opex_Eur_kWh</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1164,9 +1292,12 @@
           <t>eta_perc</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>53</v>
-      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1179,12 +1310,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>eta_perc_min</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>43</v>
-      </c>
+          <t>eta_perc</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1197,12 +1331,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eta_perc_max</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>29</v>
-      </c>
+          <t>eta_perc</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1218,9 +1355,12 @@
           <t>discountrate_perc</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>69</v>
-      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1233,12 +1373,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>discountrate_perc_min</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>52</v>
-      </c>
+          <t>discountrate_perc</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1251,12 +1394,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>discountrate_perc_max</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>72</v>
-      </c>
+          <t>discountrate_perc</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1272,9 +1418,12 @@
           <t>lifetime_yr</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>57</v>
-      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1287,12 +1436,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>lifetime_yr_min</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>14</v>
-      </c>
+          <t>lifetime_yr</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1305,12 +1457,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>lifetime_yr_max</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>17</v>
-      </c>
+          <t>lifetime_yr</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1326,9 +1481,12 @@
           <t>operatinghoursyearly</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>28</v>
-      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1341,12 +1499,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>operatinghoursyearly_min</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>37</v>
-      </c>
+          <t>operatinghoursyearly</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1359,12 +1520,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>operatinghoursyearly_max</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>87</v>
-      </c>
+          <t>operatinghoursyearly</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1380,9 +1544,12 @@
           <t>cost_Eur_per_kWh</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>17</v>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1395,12 +1562,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>cost_Eur_per_kWh_min</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>11</v>
-      </c>
+          <t>cost_Eur_per_kWh</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1413,12 +1583,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>cost_Eur_per_kWh_max</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>94</v>
-      </c>
+          <t>cost_Eur_per_kWh</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1434,9 +1607,12 @@
           <t>costIncrease_percent_per_year</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1449,12 +1625,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>costIncrease_percent_per_year_min</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>81</v>
-      </c>
+          <t>costIncrease_percent_per_year</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1467,12 +1646,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>costIncrease_percent_per_year_max</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>61</v>
-      </c>
+          <t>costIncrease_percent_per_year</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1488,9 +1670,12 @@
           <t>cost_Eur_per_kWh</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>96</v>
-      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1503,12 +1688,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>cost_Eur_per_kWh_min</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>99</v>
-      </c>
+          <t>cost_Eur_per_kWh</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1521,12 +1709,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>cost_Eur_per_kWh_max</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>72</v>
-      </c>
+          <t>cost_Eur_per_kWh</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1542,9 +1733,12 @@
           <t>costIncrease_percent_per_year</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>45</v>
-      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>nominal</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1557,12 +1751,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>costIncrease_percent_per_year_min</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>23</v>
-      </c>
+          <t>costIncrease_percent_per_year</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1575,12 +1772,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>costIncrease_percent_per_year_max</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>84</v>
-      </c>
+          <t>costIncrease_percent_per_year</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
